--- a/biology/Zoologie/Buccinum_undatum/Buccinum_undatum.xlsx
+++ b/biology/Zoologie/Buccinum_undatum/Buccinum_undatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Buccin commun (Buccinum undatum), appelé buccin, gros buccin, bourgot ou bulot, est une espèce de mollusques gastéropodes prosobranches marins très apprécié pour ses qualités gustatives.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme bien d'autres animaux marins, il porte de nombreux noms variant en fonction des régions.Il partage avec d'autres gastéropodes les noms vernaculaires de buccin ou bulot ; il est aussi appelé buccin comestible, buccin commun, buccin commun du Nord, buccin ondé, escargot de mer, gros bigorneau, pilot, trompette de mer[1] ; chanteur dans la Somme, calicoco dans le Cotentin, ran à Granville, torion à Cancale, killog dans le Finistère, bavoux à Barfleur, burgaud morchoux aux Sables-d'Olonne, etc. Au Québec, il est nommé bourgot.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme bien d'autres animaux marins, il porte de nombreux noms variant en fonction des régions.Il partage avec d'autres gastéropodes les noms vernaculaires de buccin ou bulot ; il est aussi appelé buccin comestible, buccin commun, buccin commun du Nord, buccin ondé, escargot de mer, gros bigorneau, pilot, trompette de mer ; chanteur dans la Somme, calicoco dans le Cotentin, ran à Granville, torion à Cancale, killog dans le Finistère, bavoux à Barfleur, burgaud morchoux aux Sables-d'Olonne, etc. Au Québec, il est nommé bourgot.
 En France, la Direction générale de la concurrence, de la consommation et de la répression des fraudes ne reconnait sous le nom de « bulot » que cette espèce, parmi celles de la famille des Buccinidae.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans l'Atlantique jusqu'au nord du Canada et jusqu'à la Sibérie. Il est remplacé en Méditerranée par deux espèces proches (qui portent parfois le même nom) : Buccinum humphreysianum (Bennet, 1824) et Buccinulum corneum (Linnaeus, 1758).
 </t>
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pied du gastéropode est très développé et constitue la partie comestible de l'animal. Il devient adulte à 4 ans et peut vivre plus de 10 ans ; sa taille à 4 ans est de 5,5 cm, elle peut dépasser 10 cm pour les sujets les plus âgés. Un animal adulte pèse environ 20 grammes.
 Son régime est principalement nécrophage et il mange des cadavres de poissons ou de crabes. Il est attiré par les cadavres grâce à certaines molécules aminées que ceux-ci dégagent et qui sont perçues par le buccin au moyen d'un organe sensoriel, l'osphradie.
-La pêche se fait au casier. La Normandie est la première région productrice. Le « Bulot de la Baie de Granville » est une indication géographique protégée depuis février 2019.[1]
+La pêche se fait au casier. La Normandie est la première région productrice. Le « Bulot de la Baie de Granville » est une indication géographique protégée depuis février 2019.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Pressions, menaces sur l'espèce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est vulnérable à la surpêche, mais aussi à la pollution marine et notamment à certains organostanniques dont le tributylétain (TBT) responsables d'imposex chez le bulot (comme chez d'autres mollusques marins) ; des doses infimes de TBT transforment des femelles en mâles ou les masculinisent assez pour empêcher la bonne reproduction de l'espèce[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est vulnérable à la surpêche, mais aussi à la pollution marine et notamment à certains organostanniques dont le tributylétain (TBT) responsables d'imposex chez le bulot (comme chez d'autres mollusques marins) ; des doses infimes de TBT transforment des femelles en mâles ou les masculinisent assez pour empêcher la bonne reproduction de l'espèce.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce figure sur une émission d'Islande de 1982 (valeur faciale : 20 a) ainsi que sur une émission des îles Féroé de 2002.
 </t>
